--- a/public/json/TestPlannerJSONFiles.xlsx
+++ b/public/json/TestPlannerJSONFiles.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maneesha\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MData\Dev\Spark MData\json\test_planner_json\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12930" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9330" windowHeight="3195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="68">
   <si>
     <t>/ldapCheck</t>
   </si>
@@ -150,6 +150,84 @@
   </si>
   <si>
     <t>get-rest.alm.testCases.json</t>
+  </si>
+  <si>
+    <t>/ldapLogout</t>
+  </si>
+  <si>
+    <t>post-ldapLogout.json</t>
+  </si>
+  <si>
+    <t>/rest/alm/databases/apg_qa_producttest_db/testcaseinstances/51097</t>
+  </si>
+  <si>
+    <t>/rest/alm/databases/apg_qa_producttest_db/folder/510</t>
+  </si>
+  <si>
+    <t>/rest/alm/databases/apg_qa_producttest_db/testsets/532</t>
+  </si>
+  <si>
+    <t>/rest/alm/databases/apg_qa_producttest_db/testcasefolders/16548</t>
+  </si>
+  <si>
+    <t>/rest/alm/databases/apg_qa_producttest_db/testcasesbyfolder/16546</t>
+  </si>
+  <si>
+    <t>get-rest.cq.tasks.json</t>
+  </si>
+  <si>
+    <t>/rest/cq/tasks</t>
+  </si>
+  <si>
+    <t>/rest/cq/boxcars/LSIP200XXXXXX/devrequests/</t>
+  </si>
+  <si>
+    <t>/rest/cq/devrequests/LSIP200XXXXXX/implrequests/</t>
+  </si>
+  <si>
+    <t>get-rest.cq.boxcars.LSIP200XXXXXX.devrequests.json</t>
+  </si>
+  <si>
+    <t>get-rest.alm.databases.apg_qa_producttest_db.folder.510.json</t>
+  </si>
+  <si>
+    <t>get-rest.alm.databases.apg_qa_producttest_db.testsets.532.json</t>
+  </si>
+  <si>
+    <t>get-rest.alm.databases.apg_qa_producttest_db.testcaseinstances.51097.json</t>
+  </si>
+  <si>
+    <t>get-rest.alm.databases.apg_qa_producttest_db.testcasefolders.16548.json</t>
+  </si>
+  <si>
+    <t>get-rest.alm.databases.apg_qa_producttest_db.testcasesbyfolder.16546.json</t>
+  </si>
+  <si>
+    <t>/rest/ci/products</t>
+  </si>
+  <si>
+    <t>get-rest.ci.products.json</t>
+  </si>
+  <si>
+    <t>/rest/ci/runchecktests</t>
+  </si>
+  <si>
+    <t>get-rest.ci.runchecktests.json</t>
+  </si>
+  <si>
+    <t>/rest/v2/requirement/archdocs/</t>
+  </si>
+  <si>
+    <t>/rest/v2/requirement/archdocs/1/topics/</t>
+  </si>
+  <si>
+    <t>get-rest.v2.requirements.archdocs.json</t>
+  </si>
+  <si>
+    <t>get-rest.v2.requirements.archdocs.1.topics.json</t>
+  </si>
+  <si>
+    <t>get-rest.cq.devrequests.LSIP200XXXXXX.implrequests.json</t>
   </si>
 </sst>
 </file>
@@ -490,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,10 +579,10 @@
     <col min="1" max="1" width="97.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -518,7 +596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +624,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,6 +832,188 @@
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
